--- a/materials/exp_lists/session_2_13.xlsx
+++ b/materials/exp_lists/session_2_13.xlsx
@@ -194,7 +194,7 @@
     <t>potabu</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>костер</t>
@@ -479,10 +479,10 @@
     <t>ediste = светофор?</t>
   </si>
   <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = фотоаппарат?</t>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = фотоаппарат?</t>
   </si>
   <si>
     <t>vantimu</t>
